--- a/src/main/resources/reports/employeeCodeReport.xlsx
+++ b/src/main/resources/reports/employeeCodeReport.xlsx
@@ -385,7 +385,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
@@ -467,7 +467,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
@@ -549,7 +549,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
